--- a/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -271,14 +271,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否创建</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create(int)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -353,6 +345,22 @@
   </si>
   <si>
     <t>footid</t>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -924,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH27" sqref="AH27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -957,17 +965,18 @@
     <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
     <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
     <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="9.375" style="6" customWidth="1"/>
-    <col min="34" max="34" width="17.125" style="6" customWidth="1"/>
-    <col min="35" max="35" width="21.5" style="6" customWidth="1"/>
-    <col min="36" max="36" width="24.875" style="6" customWidth="1"/>
-    <col min="37" max="37" width="28.75" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1003,9 +1012,10 @@
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
-      <c r="AK1" s="1"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1050,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>59</v>
@@ -1100,23 +1110,26 @@
       <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1225,11 +1238,14 @@
       <c r="AJ3" s="9">
         <v>3</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1276,7 +1292,7 @@
         <v>67</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1326,114 +1342,120 @@
       <c r="AF4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>0</v>
+      <c r="AG4" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AH4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="5">
         <v>0</v>
@@ -1483,99 +1505,105 @@
       <c r="AF6" s="5">
         <v>0</v>
       </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1</v>
-      </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <v>0</v>
@@ -1625,303 +1653,318 @@
       <c r="AF8" s="5">
         <v>0</v>
       </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>1</v>
-      </c>
-      <c r="V9" s="5">
-        <v>1</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
-        <v>1</v>
-      </c>
-      <c r="V10" s="5">
-        <v>1</v>
-      </c>
-      <c r="W10" s="5">
-        <v>0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="5">
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="11">
+        <v>1</v>
+      </c>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11" t="s">
+    <row r="12" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>1</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="11">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>1</v>
-      </c>
-      <c r="V11" s="11">
-        <v>1</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="E12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>1</v>
+      </c>
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="11">
+        <v>0</v>
+      </c>
+      <c r="T12" s="11">
+        <v>0</v>
+      </c>
+      <c r="U12" s="11">
+        <v>1</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1</v>
+      </c>
+      <c r="W12" s="11">
+        <v>0</v>
+      </c>
+      <c r="X12" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>1</v>
-      </c>
-      <c r="R12" s="11">
-        <v>0</v>
-      </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11">
-        <v>0</v>
-      </c>
-      <c r="U12" s="11">
-        <v>1</v>
-      </c>
-      <c r="V12" s="11">
-        <v>1</v>
-      </c>
-      <c r="W12" s="11">
-        <v>0</v>
-      </c>
-      <c r="X12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="11">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="11">
         <v>1</v>
@@ -1969,6 +2012,9 @@
         <v>0</v>
       </c>
       <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
         <v>0</v>
       </c>
     </row>

--- a/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="97">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>LogicName(string)</t>
-  </si>
-  <si>
-    <t>Group(int)</t>
   </si>
   <si>
     <t>基础属性</t>
@@ -360,6 +357,32 @@
   </si>
   <si>
     <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +958,7 @@
   <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH27" sqref="AH27"/>
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -976,7 +999,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1054,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>59</v>
@@ -1096,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>22</v>
@@ -1111,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
@@ -1286,13 +1309,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="P4" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1328,13 +1351,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>62</v>
+      <c r="AD4" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>51</v>
@@ -1343,7 +1366,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>0</v>
@@ -1363,28 +1386,28 @@
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1443,16 +1466,16 @@
     </row>
     <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -1511,28 +1534,28 @@
     </row>
     <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="P7" s="5">
         <v>0</v>
@@ -1591,16 +1614,16 @@
     </row>
     <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P8" s="5">
         <v>0</v>
@@ -1659,28 +1682,28 @@
     </row>
     <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="P9" s="5">
         <v>0</v>
@@ -1739,16 +1762,16 @@
     </row>
     <row r="10" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="5">
         <v>0</v>
@@ -1807,19 +1830,19 @@
     </row>
     <row r="11" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -1878,19 +1901,19 @@
     </row>
     <row r="12" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="C12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="11">
         <v>0</v>
@@ -1949,19 +1972,19 @@
     </row>
     <row r="13" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>

--- a/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
+++ b/Resource/excel/Y-英雄-玩家属性-(框架定义,后端维护).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -383,6 +383,36 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>equest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步客户端</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,23 +1010,23 @@
     <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="23" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
         <v>68</v>
@@ -1036,9 +1066,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1106,53 +1137,56 @@
       <c r="W2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1226,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1235,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1264,11 +1298,14 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1338,53 +1375,56 @@
       <c r="W4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="X4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AG4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
       <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AK4" s="10" t="s">
+      <c r="AL4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
@@ -1437,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="5">
         <v>1</v>
@@ -1446,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="AB5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="5">
         <v>0</v>
@@ -1463,8 +1503,11 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>80</v>
       </c>
@@ -1511,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="5">
         <v>0</v>
@@ -1531,8 +1574,11 @@
       <c r="AG6" s="5">
         <v>0</v>
       </c>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -1585,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="5">
         <v>1</v>
@@ -1594,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="AB7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="5">
         <v>0</v>
@@ -1611,8 +1657,11 @@
       <c r="AG7" s="5">
         <v>0</v>
       </c>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
@@ -1659,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AA8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="5">
         <v>0</v>
@@ -1679,8 +1728,11 @@
       <c r="AG8" s="5">
         <v>0</v>
       </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -1733,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="5">
         <v>1</v>
@@ -1742,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="5">
         <v>0</v>
@@ -1759,8 +1811,11 @@
       <c r="AG9" s="5">
         <v>0</v>
       </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>90</v>
       </c>
@@ -1807,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="AA10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="5">
         <v>0</v>
@@ -1827,8 +1882,11 @@
       <c r="AG10" s="5">
         <v>0</v>
       </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>69</v>
       </c>
@@ -1872,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>1</v>
@@ -1881,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="AB11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="11">
         <v>0</v>
@@ -1898,8 +1956,11 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>72</v>
       </c>
@@ -1943,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="11">
         <v>1</v>
@@ -1952,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="AB12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="11">
         <v>0</v>
@@ -1969,8 +2030,11 @@
       <c r="AG12" s="11">
         <v>0</v>
       </c>
+      <c r="AH12" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>74</v>
       </c>
@@ -2014,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="11">
         <v>1</v>
@@ -2023,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="AB13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="11">
         <v>0</v>
@@ -2038,6 +2102,9 @@
         <v>0</v>
       </c>
       <c r="AG13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11">
         <v>0</v>
       </c>
     </row>
